--- a/data/interim/my_ig_posts_2022_pulled_2023-02-11.xlsx
+++ b/data/interim/my_ig_posts_2022_pulled_2023-02-11.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93345f1c83a5c894/lighthouse/portfolio-projects/online-PT-social-media-NLP/data/interim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18216C57-1C0A-460E-9FDB-4A953A58924C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{18216C57-1C0A-460E-9FDB-4A953A58924C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B6C8E10-9286-422F-B6BA-5E88F1F3699A}"/>
   <bookViews>
-    <workbookView xWindow="8664" yWindow="17172" windowWidth="19416" windowHeight="11016"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="my_ig_posts_2022_pulled_2023-02" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -738,7 +751,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1575,7 +1588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1589,6 +1602,8 @@
   <cols>
     <col min="2" max="2" width="34.33203125" customWidth="1"/>
     <col min="3" max="3" width="74.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
